--- a/Spot_Price_Results.xlsx
+++ b/Spot_Price_Results.xlsx
@@ -19,34 +19,34 @@
     <t>Hour</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Price [NOK/kWh]</t>
   </si>
   <si>
-    <t>Demand</t>
+    <t>Demand [kW]</t>
   </si>
   <si>
-    <t>EV Demand</t>
+    <t>EV Demand [kW]</t>
   </si>
   <si>
-    <t>Battery SOC</t>
+    <t>Battery SOC [kWh]</t>
   </si>
   <si>
-    <t>Charge Power</t>
+    <t>Charge Power [kW]</t>
   </si>
   <si>
-    <t>Discharge Power</t>
+    <t>Discharge Power [kW]</t>
   </si>
   <si>
-    <t>EV SOC</t>
+    <t>EV SOC [kWh]</t>
   </si>
   <si>
-    <t>EV Charge Power</t>
+    <t>EV Charge Power [kW]</t>
   </si>
   <si>
-    <t>EV Discharge Power</t>
+    <t>EV Discharge Power [kW]</t>
   </si>
   <si>
-    <t>Power Import</t>
+    <t>Power Import [kW]</t>
   </si>
   <si>
     <t>ENS</t>

--- a/Spot_Price_Results.xlsx
+++ b/Spot_Price_Results.xlsx
@@ -1339,10 +1339,10 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E25">
-        <v>2.000000000000002</v>
+        <v>15.6</v>
       </c>
       <c r="F25">
-        <v>2.051282051282053</v>
+        <v>16</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>50.78544871794873</v>
+        <v>64.73416666666667</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>17.6</v>
       </c>
       <c r="F26">
-        <v>16</v>
+        <v>2.051282051282053</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>63.565</v>
+        <v>49.61628205128206</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4008,16 +4008,16 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>48.77749999999762</v>
+        <v>48.57500000000001</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>8.572500000002385</v>
+        <v>8.774999999999999</v>
       </c>
       <c r="K95">
-        <v>48.12291666666428</v>
+        <v>47.92041666666667</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>48.77749999999762</v>
+        <v>48.57500000000001</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>48.77749999999762</v>
+        <v>48.57500000000001</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>48.77749999999762</v>
+        <v>48.57500000000001</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>48.77749999999762</v>
+        <v>48.57500000000001</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>76.62749999999762</v>
+        <v>76.42500000000001</v>
       </c>
       <c r="I100">
         <v>27.85</v>
@@ -4236,16 +4236,16 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>104.7274999999976</v>
+        <v>99.87500000000001</v>
       </c>
       <c r="I101">
-        <v>28.1</v>
+        <v>23.45</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>76.32416666666667</v>
+        <v>71.67416666666668</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>104.7274999999976</v>
+        <v>99.87500000000001</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>104.7274999999976</v>
+        <v>99.87500000000001</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>104.4774999999976</v>
+        <v>99.62500000000001</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>104.1524999999976</v>
+        <v>99.30000000000001</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>102.9024999999976</v>
+        <v>98.05000000000001</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>16</v>
       </c>
       <c r="H107">
-        <v>101.2274999999976</v>
+        <v>96.37500000000001</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>16</v>
       </c>
       <c r="H108">
-        <v>99.20249999999761</v>
+        <v>94.35000000000001</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4531,16 +4531,16 @@
         <v>2.375</v>
       </c>
       <c r="E109">
-        <v>34.44102564102565</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>12.42</v>
+        <v>16</v>
       </c>
       <c r="H109">
-        <v>96.82749999999761</v>
+        <v>91.97500000000001</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>2.375</v>
       </c>
       <c r="K109">
-        <v>18.42583333333334</v>
+        <v>14.84583333333333</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -4569,7 +4569,7 @@
         <v>2.95</v>
       </c>
       <c r="E110">
-        <v>34.44102564102565</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>93.87749999999761</v>
+        <v>89.02500000000001</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4607,16 +4607,16 @@
         <v>3.025</v>
       </c>
       <c r="E111">
-        <v>50.04102564102565</v>
+        <v>33.63076923076923</v>
       </c>
       <c r="F111">
-        <v>16</v>
+        <v>2.934911242603551</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>90.8524999999976</v>
+        <v>86</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>3.025</v>
       </c>
       <c r="K111">
-        <v>43.75708333333333</v>
+        <v>30.69199457593688</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -4645,16 +4645,16 @@
         <v>3.924999999999999</v>
       </c>
       <c r="E112">
-        <v>65.64102564102565</v>
+        <v>33.63076923076923</v>
       </c>
       <c r="F112">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>86.92749999999761</v>
+        <v>82.075</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>3.924999999999999</v>
       </c>
       <c r="K112">
-        <v>51.6675</v>
+        <v>35.6675</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>5.175000000000001</v>
       </c>
       <c r="E113">
-        <v>49.23076923076924</v>
+        <v>17.22051282051282</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>16</v>
       </c>
       <c r="H113">
-        <v>81.75249999999761</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4721,7 +4721,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E114">
-        <v>32.82051282051282</v>
+        <v>0.8102564102564127</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>16</v>
       </c>
       <c r="H114">
-        <v>72.97749999999762</v>
+        <v>68.125</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -4762,22 +4762,22 @@
         <v>16.41025641025641</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G115">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>64.27749999999762</v>
+        <v>86.375</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="J115">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>40.54958333333334</v>
+        <v>0</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>16</v>
       </c>
       <c r="H116">
-        <v>56.37749999999762</v>
+        <v>78.47499999999999</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>48.35249999999762</v>
+        <v>70.45</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>39.17749999999761</v>
+        <v>61.275</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>30.40249999999762</v>
+        <v>52.5</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>30.40249999999762</v>
+        <v>52.5</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>30.40249999999762</v>
+        <v>52.5</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>30.40249999999762</v>
+        <v>52.5</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>30.40249999999762</v>
+        <v>52.5</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5110,16 +5110,16 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>47.95</v>
+        <v>52.5</v>
       </c>
       <c r="I124">
-        <v>17.54750000000239</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>63.01416666666906</v>
+        <v>45.46666666666667</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>47.95</v>
+        <v>52.5</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>47.95</v>
+        <v>52.5</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>47.95</v>
+        <v>52.5</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>47.95</v>
+        <v>52.5</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>47.95</v>
+        <v>52.5</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>47.95</v>
+        <v>52.5</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>47.95</v>
+        <v>52.5</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>46.6</v>
+        <v>51.15</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>16</v>
       </c>
       <c r="H133">
-        <v>44.575</v>
+        <v>49.125</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="H134">
-        <v>41.825</v>
+        <v>46.375</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>37.85</v>
+        <v>42.4</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5572,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="K136">
-        <v>41.61666666666667</v>
+        <v>37.06666666666668</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -14306,16 +14306,16 @@
         <v>0</v>
       </c>
       <c r="H366">
-        <v>65.3</v>
+        <v>65.55</v>
       </c>
       <c r="I366">
-        <v>7.724999999999994</v>
+        <v>7.974999999999994</v>
       </c>
       <c r="J366">
         <v>0</v>
       </c>
       <c r="K366">
-        <v>64.33291666666666</v>
+        <v>64.58291666666666</v>
       </c>
       <c r="L366">
         <v>0</v>
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="H367">
-        <v>65.3</v>
+        <v>65.55</v>
       </c>
       <c r="I367">
         <v>0</v>
@@ -14388,10 +14388,10 @@
         <v>0</v>
       </c>
       <c r="J368">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K368">
-        <v>46.6625</v>
+        <v>46.4125</v>
       </c>
       <c r="L368">
         <v>0</v>
@@ -16928,16 +16928,16 @@
         <v>0</v>
       </c>
       <c r="H435">
-        <v>1.199999999999985</v>
+        <v>2.449999999999985</v>
       </c>
       <c r="I435">
-        <v>1.199999999999985</v>
+        <v>2.449999999999985</v>
       </c>
       <c r="J435">
         <v>0</v>
       </c>
       <c r="K435">
-        <v>45.70583333333331</v>
+        <v>46.95583333333331</v>
       </c>
       <c r="L435">
         <v>0</v>
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="H436">
-        <v>29.04999999999999</v>
+        <v>30.29999999999999</v>
       </c>
       <c r="I436">
         <v>27.85</v>
@@ -17004,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <v>57.14999999999998</v>
+        <v>58.39999999999998</v>
       </c>
       <c r="I437">
         <v>28.1</v>
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="H438">
-        <v>85.17499999999998</v>
+        <v>86.42499999999998</v>
       </c>
       <c r="I438">
         <v>28.025</v>
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
       <c r="H439">
-        <v>85.17499999999998</v>
+        <v>86.42499999999998</v>
       </c>
       <c r="I439">
         <v>0</v>
@@ -17118,7 +17118,7 @@
         <v>0</v>
       </c>
       <c r="H440">
-        <v>85.17499999999998</v>
+        <v>86.42499999999998</v>
       </c>
       <c r="I440">
         <v>0</v>
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="H441">
-        <v>85.17499999999998</v>
+        <v>86.42499999999998</v>
       </c>
       <c r="I441">
         <v>0</v>
@@ -17200,10 +17200,10 @@
         <v>0</v>
       </c>
       <c r="J442">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K442">
-        <v>45.81541666666667</v>
+        <v>44.56541666666667</v>
       </c>
       <c r="L442">
         <v>0</v>
@@ -25136,16 +25136,16 @@
         <v>0</v>
       </c>
       <c r="H651">
-        <v>24.2</v>
+        <v>26.64750000000246</v>
       </c>
       <c r="I651">
-        <v>0</v>
+        <v>2.447500000002464</v>
       </c>
       <c r="J651">
         <v>0</v>
       </c>
       <c r="K651">
-        <v>45.38083333333333</v>
+        <v>47.82833333333579</v>
       </c>
       <c r="L651">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="H652">
-        <v>24.2</v>
+        <v>26.64750000000246</v>
       </c>
       <c r="I652">
         <v>0</v>
@@ -25212,7 +25212,7 @@
         <v>0</v>
       </c>
       <c r="H653">
-        <v>24.2</v>
+        <v>26.64750000000246</v>
       </c>
       <c r="I653">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H654">
-        <v>24.2</v>
+        <v>26.64750000000246</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -25288,7 +25288,7 @@
         <v>0</v>
       </c>
       <c r="H655">
-        <v>24.2</v>
+        <v>26.64750000000246</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="H656">
-        <v>23.45</v>
+        <v>25.89750000000246</v>
       </c>
       <c r="I656">
         <v>0</v>
@@ -25364,7 +25364,7 @@
         <v>16</v>
       </c>
       <c r="H657">
-        <v>22.95</v>
+        <v>25.39750000000246</v>
       </c>
       <c r="I657">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="H658">
-        <v>22.125</v>
+        <v>24.57250000000246</v>
       </c>
       <c r="I658">
         <v>0</v>
@@ -25440,7 +25440,7 @@
         <v>16</v>
       </c>
       <c r="H659">
-        <v>20.875</v>
+        <v>23.32250000000246</v>
       </c>
       <c r="I659">
         <v>0</v>
@@ -25478,7 +25478,7 @@
         <v>16</v>
       </c>
       <c r="H660">
-        <v>19.525</v>
+        <v>21.97250000000246</v>
       </c>
       <c r="I660">
         <v>0</v>
@@ -25516,7 +25516,7 @@
         <v>16</v>
       </c>
       <c r="H661">
-        <v>17.5</v>
+        <v>19.94750000000246</v>
       </c>
       <c r="I661">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="H662">
-        <v>14.75</v>
+        <v>17.19750000000246</v>
       </c>
       <c r="I662">
         <v>0</v>
@@ -25592,7 +25592,7 @@
         <v>0</v>
       </c>
       <c r="H663">
-        <v>14.75</v>
+        <v>17.19750000000246</v>
       </c>
       <c r="I663">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="H664">
-        <v>14.75</v>
+        <v>17.19750000000246</v>
       </c>
       <c r="I664">
         <v>0</v>
@@ -25668,7 +25668,7 @@
         <v>0</v>
       </c>
       <c r="H665">
-        <v>14.75</v>
+        <v>17.19750000000246</v>
       </c>
       <c r="I665">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         <v>0</v>
       </c>
       <c r="H666">
-        <v>8.300000000000001</v>
+        <v>10.74750000000246</v>
       </c>
       <c r="I666">
         <v>0</v>
@@ -25744,7 +25744,7 @@
         <v>0</v>
       </c>
       <c r="H667">
-        <v>0.8750000000000009</v>
+        <v>3.322500000002464</v>
       </c>
       <c r="I667">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="J668">
-        <v>0.8750000000000009</v>
+        <v>3.322500000002464</v>
       </c>
       <c r="K668">
-        <v>55.41500000000001</v>
+        <v>52.96749999999754</v>
       </c>
       <c r="L668">
         <v>0</v>
@@ -26010,16 +26010,16 @@
         <v>0</v>
       </c>
       <c r="H674">
-        <v>53.625</v>
+        <v>49.575</v>
       </c>
       <c r="I674">
-        <v>27.35</v>
+        <v>23.3</v>
       </c>
       <c r="J674">
         <v>0</v>
       </c>
       <c r="K674">
-        <v>70.09708333333333</v>
+        <v>66.04708333333333</v>
       </c>
       <c r="L674">
         <v>0</v>
@@ -26051,13 +26051,13 @@
         <v>77.25</v>
       </c>
       <c r="I675">
-        <v>23.625</v>
+        <v>27.675</v>
       </c>
       <c r="J675">
         <v>0</v>
       </c>
       <c r="K675">
-        <v>68.53083333333333</v>
+        <v>72.58083333333333</v>
       </c>
       <c r="L675">
         <v>0</v>

--- a/Spot_Price_Results.xlsx
+++ b/Spot_Price_Results.xlsx
@@ -1339,10 +1339,10 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E25">
-        <v>15.6</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>2.051282051282053</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>64.73416666666667</v>
+        <v>50.78544871794873</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>17.6</v>
       </c>
       <c r="F26">
-        <v>2.051282051282053</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>49.61628205128206</v>
+        <v>63.565</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4008,16 +4008,16 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>48.57500000000001</v>
+        <v>48.77749999999762</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>8.774999999999999</v>
+        <v>8.572500000002385</v>
       </c>
       <c r="K95">
-        <v>47.92041666666667</v>
+        <v>48.12291666666428</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>48.57500000000001</v>
+        <v>48.77749999999762</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>48.57500000000001</v>
+        <v>48.77749999999762</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>48.57500000000001</v>
+        <v>48.77749999999762</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>48.57500000000001</v>
+        <v>48.77749999999762</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>76.42500000000001</v>
+        <v>76.62749999999762</v>
       </c>
       <c r="I100">
         <v>27.85</v>
@@ -4236,16 +4236,16 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>99.87500000000001</v>
+        <v>104.7274999999976</v>
       </c>
       <c r="I101">
-        <v>23.45</v>
+        <v>28.1</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>71.67416666666668</v>
+        <v>76.32416666666667</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>99.87500000000001</v>
+        <v>104.7274999999976</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>99.87500000000001</v>
+        <v>104.7274999999976</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>99.62500000000001</v>
+        <v>104.4774999999976</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>99.30000000000001</v>
+        <v>104.1524999999976</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>98.05000000000001</v>
+        <v>102.9024999999976</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>16</v>
       </c>
       <c r="H107">
-        <v>96.37500000000001</v>
+        <v>101.2274999999976</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>16</v>
       </c>
       <c r="H108">
-        <v>94.35000000000001</v>
+        <v>99.20249999999761</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4531,16 +4531,16 @@
         <v>2.375</v>
       </c>
       <c r="E109">
-        <v>30.76923076923077</v>
+        <v>34.44102564102565</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>16</v>
+        <v>12.42</v>
       </c>
       <c r="H109">
-        <v>91.97500000000001</v>
+        <v>96.82749999999761</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>2.375</v>
       </c>
       <c r="K109">
-        <v>14.84583333333333</v>
+        <v>18.42583333333334</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -4569,7 +4569,7 @@
         <v>2.95</v>
       </c>
       <c r="E110">
-        <v>30.76923076923077</v>
+        <v>34.44102564102565</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>89.02500000000001</v>
+        <v>93.87749999999761</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4607,16 +4607,16 @@
         <v>3.025</v>
       </c>
       <c r="E111">
-        <v>33.63076923076923</v>
+        <v>50.04102564102565</v>
       </c>
       <c r="F111">
-        <v>2.934911242603551</v>
+        <v>16</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>86</v>
+        <v>90.8524999999976</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>3.025</v>
       </c>
       <c r="K111">
-        <v>30.69199457593688</v>
+        <v>43.75708333333333</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -4645,16 +4645,16 @@
         <v>3.924999999999999</v>
       </c>
       <c r="E112">
-        <v>33.63076923076923</v>
+        <v>65.64102564102565</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>82.075</v>
+        <v>86.92749999999761</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>3.924999999999999</v>
       </c>
       <c r="K112">
-        <v>35.6675</v>
+        <v>51.6675</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>5.175000000000001</v>
       </c>
       <c r="E113">
-        <v>17.22051282051282</v>
+        <v>49.23076923076924</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>16</v>
       </c>
       <c r="H113">
-        <v>76.90000000000001</v>
+        <v>81.75249999999761</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4721,7 +4721,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E114">
-        <v>0.8102564102564127</v>
+        <v>32.82051282051282</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>16</v>
       </c>
       <c r="H114">
-        <v>68.125</v>
+        <v>72.97749999999762</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -4762,22 +4762,22 @@
         <v>16.41025641025641</v>
       </c>
       <c r="F115">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H115">
-        <v>86.375</v>
+        <v>64.27749999999762</v>
       </c>
       <c r="I115">
-        <v>18.25</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>40.54958333333334</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>16</v>
       </c>
       <c r="H116">
-        <v>78.47499999999999</v>
+        <v>56.37749999999762</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>70.45</v>
+        <v>48.35249999999762</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>61.275</v>
+        <v>39.17749999999761</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>52.5</v>
+        <v>30.40249999999762</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>52.5</v>
+        <v>30.40249999999762</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>52.5</v>
+        <v>30.40249999999762</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>52.5</v>
+        <v>30.40249999999762</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>52.5</v>
+        <v>30.40249999999762</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5110,16 +5110,16 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>52.5</v>
+        <v>47.95</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>17.54750000000239</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>45.46666666666667</v>
+        <v>63.01416666666906</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>52.5</v>
+        <v>47.95</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>52.5</v>
+        <v>47.95</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>52.5</v>
+        <v>47.95</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>52.5</v>
+        <v>47.95</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>52.5</v>
+        <v>47.95</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>52.5</v>
+        <v>47.95</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>52.5</v>
+        <v>47.95</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>51.15</v>
+        <v>46.6</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>16</v>
       </c>
       <c r="H133">
-        <v>49.125</v>
+        <v>44.575</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="H134">
-        <v>46.375</v>
+        <v>41.825</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>42.4</v>
+        <v>37.85</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5572,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>37.06666666666668</v>
+        <v>41.61666666666667</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -14306,16 +14306,16 @@
         <v>0</v>
       </c>
       <c r="H366">
-        <v>65.55</v>
+        <v>65.3</v>
       </c>
       <c r="I366">
-        <v>7.974999999999994</v>
+        <v>7.724999999999994</v>
       </c>
       <c r="J366">
         <v>0</v>
       </c>
       <c r="K366">
-        <v>64.58291666666666</v>
+        <v>64.33291666666666</v>
       </c>
       <c r="L366">
         <v>0</v>
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="H367">
-        <v>65.55</v>
+        <v>65.3</v>
       </c>
       <c r="I367">
         <v>0</v>
@@ -14388,10 +14388,10 @@
         <v>0</v>
       </c>
       <c r="J368">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K368">
-        <v>46.4125</v>
+        <v>46.6625</v>
       </c>
       <c r="L368">
         <v>0</v>
@@ -16928,16 +16928,16 @@
         <v>0</v>
       </c>
       <c r="H435">
-        <v>2.449999999999985</v>
+        <v>1.199999999999985</v>
       </c>
       <c r="I435">
-        <v>2.449999999999985</v>
+        <v>1.199999999999985</v>
       </c>
       <c r="J435">
         <v>0</v>
       </c>
       <c r="K435">
-        <v>46.95583333333331</v>
+        <v>45.70583333333331</v>
       </c>
       <c r="L435">
         <v>0</v>
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="H436">
-        <v>30.29999999999999</v>
+        <v>29.04999999999999</v>
       </c>
       <c r="I436">
         <v>27.85</v>
@@ -17004,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <v>58.39999999999998</v>
+        <v>57.14999999999998</v>
       </c>
       <c r="I437">
         <v>28.1</v>
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="H438">
-        <v>86.42499999999998</v>
+        <v>85.17499999999998</v>
       </c>
       <c r="I438">
         <v>28.025</v>
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
       <c r="H439">
-        <v>86.42499999999998</v>
+        <v>85.17499999999998</v>
       </c>
       <c r="I439">
         <v>0</v>
@@ -17118,7 +17118,7 @@
         <v>0</v>
       </c>
       <c r="H440">
-        <v>86.42499999999998</v>
+        <v>85.17499999999998</v>
       </c>
       <c r="I440">
         <v>0</v>
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="H441">
-        <v>86.42499999999998</v>
+        <v>85.17499999999998</v>
       </c>
       <c r="I441">
         <v>0</v>
@@ -17200,10 +17200,10 @@
         <v>0</v>
       </c>
       <c r="J442">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="K442">
-        <v>44.56541666666667</v>
+        <v>45.81541666666667</v>
       </c>
       <c r="L442">
         <v>0</v>
@@ -25136,16 +25136,16 @@
         <v>0</v>
       </c>
       <c r="H651">
-        <v>26.64750000000246</v>
+        <v>24.2</v>
       </c>
       <c r="I651">
-        <v>2.447500000002464</v>
+        <v>0</v>
       </c>
       <c r="J651">
         <v>0</v>
       </c>
       <c r="K651">
-        <v>47.82833333333579</v>
+        <v>45.38083333333333</v>
       </c>
       <c r="L651">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="H652">
-        <v>26.64750000000246</v>
+        <v>24.2</v>
       </c>
       <c r="I652">
         <v>0</v>
@@ -25212,7 +25212,7 @@
         <v>0</v>
       </c>
       <c r="H653">
-        <v>26.64750000000246</v>
+        <v>24.2</v>
       </c>
       <c r="I653">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H654">
-        <v>26.64750000000246</v>
+        <v>24.2</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -25288,7 +25288,7 @@
         <v>0</v>
       </c>
       <c r="H655">
-        <v>26.64750000000246</v>
+        <v>24.2</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="H656">
-        <v>25.89750000000246</v>
+        <v>23.45</v>
       </c>
       <c r="I656">
         <v>0</v>
@@ -25364,7 +25364,7 @@
         <v>16</v>
       </c>
       <c r="H657">
-        <v>25.39750000000246</v>
+        <v>22.95</v>
       </c>
       <c r="I657">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="H658">
-        <v>24.57250000000246</v>
+        <v>22.125</v>
       </c>
       <c r="I658">
         <v>0</v>
@@ -25440,7 +25440,7 @@
         <v>16</v>
       </c>
       <c r="H659">
-        <v>23.32250000000246</v>
+        <v>20.875</v>
       </c>
       <c r="I659">
         <v>0</v>
@@ -25478,7 +25478,7 @@
         <v>16</v>
       </c>
       <c r="H660">
-        <v>21.97250000000246</v>
+        <v>19.525</v>
       </c>
       <c r="I660">
         <v>0</v>
@@ -25516,7 +25516,7 @@
         <v>16</v>
       </c>
       <c r="H661">
-        <v>19.94750000000246</v>
+        <v>17.5</v>
       </c>
       <c r="I661">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="H662">
-        <v>17.19750000000246</v>
+        <v>14.75</v>
       </c>
       <c r="I662">
         <v>0</v>
@@ -25592,7 +25592,7 @@
         <v>0</v>
       </c>
       <c r="H663">
-        <v>17.19750000000246</v>
+        <v>14.75</v>
       </c>
       <c r="I663">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="H664">
-        <v>17.19750000000246</v>
+        <v>14.75</v>
       </c>
       <c r="I664">
         <v>0</v>
@@ -25668,7 +25668,7 @@
         <v>0</v>
       </c>
       <c r="H665">
-        <v>17.19750000000246</v>
+        <v>14.75</v>
       </c>
       <c r="I665">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         <v>0</v>
       </c>
       <c r="H666">
-        <v>10.74750000000246</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I666">
         <v>0</v>
@@ -25744,7 +25744,7 @@
         <v>0</v>
       </c>
       <c r="H667">
-        <v>3.322500000002464</v>
+        <v>0.8750000000000009</v>
       </c>
       <c r="I667">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="J668">
-        <v>3.322500000002464</v>
+        <v>0.8750000000000009</v>
       </c>
       <c r="K668">
-        <v>52.96749999999754</v>
+        <v>55.41500000000001</v>
       </c>
       <c r="L668">
         <v>0</v>
@@ -26010,16 +26010,16 @@
         <v>0</v>
       </c>
       <c r="H674">
-        <v>49.575</v>
+        <v>53.625</v>
       </c>
       <c r="I674">
-        <v>23.3</v>
+        <v>27.35</v>
       </c>
       <c r="J674">
         <v>0</v>
       </c>
       <c r="K674">
-        <v>66.04708333333333</v>
+        <v>70.09708333333333</v>
       </c>
       <c r="L674">
         <v>0</v>
@@ -26051,13 +26051,13 @@
         <v>77.25</v>
       </c>
       <c r="I675">
-        <v>27.675</v>
+        <v>23.625</v>
       </c>
       <c r="J675">
         <v>0</v>
       </c>
       <c r="K675">
-        <v>72.58083333333333</v>
+        <v>68.53083333333333</v>
       </c>
       <c r="L675">
         <v>0</v>

--- a/Spot_Price_Results.xlsx
+++ b/Spot_Price_Results.xlsx
@@ -4777,10 +4777,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
         <v>40.54958333333334</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -11751,13 +11751,13 @@
         <v>1.25</v>
       </c>
       <c r="E299">
-        <v>80</v>
+        <v>65.64102564102565</v>
       </c>
       <c r="F299">
         <v>0</v>
       </c>
       <c r="G299">
-        <v>0</v>
+        <v>13.99999999999999</v>
       </c>
       <c r="H299">
         <v>105.1</v>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="K299">
-        <v>51.08000000000001</v>
+        <v>37.08000000000001</v>
       </c>
       <c r="L299">
         <v>0</v>
@@ -11789,7 +11789,7 @@
         <v>1.35</v>
       </c>
       <c r="E300">
-        <v>63.58974358974359</v>
+        <v>49.23076923076924</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -11827,7 +11827,7 @@
         <v>2.025</v>
       </c>
       <c r="E301">
-        <v>63.58974358974359</v>
+        <v>49.23076923076924</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>2.75</v>
       </c>
       <c r="E302">
-        <v>63.58974358974359</v>
+        <v>49.23076923076924</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>3.975</v>
       </c>
       <c r="E303">
-        <v>63.58974358974359</v>
+        <v>49.23076923076924</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="G304">
-        <v>13.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="H304">
         <v>105.1</v>
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="K304">
-        <v>28.28291666666668</v>
+        <v>42.28291666666667</v>
       </c>
       <c r="L304">
         <v>0</v>
@@ -25963,10 +25963,10 @@
         <v>6.1</v>
       </c>
       <c r="E673">
-        <v>2.000000000000002</v>
+        <v>15.6</v>
       </c>
       <c r="F673">
-        <v>2.051282051282053</v>
+        <v>16</v>
       </c>
       <c r="G673">
         <v>0</v>
@@ -25981,7 +25981,7 @@
         <v>0</v>
       </c>
       <c r="K673">
-        <v>60.94919871794872</v>
+        <v>74.89791666666667</v>
       </c>
       <c r="L673">
         <v>0</v>
@@ -26001,7 +26001,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E674">
-        <v>17.6</v>
+        <v>31.2</v>
       </c>
       <c r="F674">
         <v>16</v>
@@ -26039,7 +26039,7 @@
         <v>4.074999999999999</v>
       </c>
       <c r="E675">
-        <v>33.2</v>
+        <v>46.8</v>
       </c>
       <c r="F675">
         <v>16</v>
@@ -26077,7 +26077,7 @@
         <v>2.774999999999999</v>
       </c>
       <c r="E676">
-        <v>48.8</v>
+        <v>62.4</v>
       </c>
       <c r="F676">
         <v>16</v>
@@ -26115,7 +26115,7 @@
         <v>1.85</v>
       </c>
       <c r="E677">
-        <v>64.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="F677">
         <v>16</v>
@@ -26156,7 +26156,7 @@
         <v>80</v>
       </c>
       <c r="F678">
-        <v>16</v>
+        <v>2.051282051282052</v>
       </c>
       <c r="G678">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>0</v>
       </c>
       <c r="K678">
-        <v>43.6325</v>
+        <v>29.68378205128205</v>
       </c>
       <c r="L678">
         <v>0</v>
